--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H2">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I2">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>0.4705608666986666</v>
+        <v>0.2564369701211111</v>
       </c>
       <c r="R2">
-        <v>4.235047800288</v>
+        <v>2.30793273109</v>
       </c>
       <c r="S2">
-        <v>0.1265974503783052</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="T2">
-        <v>0.1265974503783052</v>
+        <v>0.1682660991018134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H3">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I3">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>1.065757278938444</v>
+        <v>0.7551839020411111</v>
       </c>
       <c r="R3">
-        <v>9.591815510446001</v>
+        <v>6.796655118369999</v>
       </c>
       <c r="S3">
-        <v>0.2867262532524352</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="T3">
-        <v>0.2867262532524351</v>
+        <v>0.4955285863849105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H4">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I4">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.174193011502</v>
+        <v>0.1585047665655556</v>
       </c>
       <c r="R4">
-        <v>1.567737103518</v>
+        <v>1.42654289909</v>
       </c>
       <c r="S4">
-        <v>0.04686405668322117</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="T4">
-        <v>0.04686405668322115</v>
+        <v>0.1040059814559238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H5">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I5">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>0.2539311346744444</v>
+        <v>0.2418319493055555</v>
       </c>
       <c r="R5">
-        <v>2.28538021207</v>
+        <v>2.17648754375</v>
       </c>
       <c r="S5">
-        <v>0.06831642088512373</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="T5">
-        <v>0.0683164208851237</v>
+        <v>0.1586827309986352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H6">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I6">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>0.2110284040531111</v>
+        <v>0.1120390547244444</v>
       </c>
       <c r="R6">
-        <v>1.899255636478</v>
+        <v>1.00835149252</v>
       </c>
       <c r="S6">
-        <v>0.05677407494158369</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="T6">
-        <v>0.05677407494158367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07321</v>
-      </c>
-      <c r="I7">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J7">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.663472</v>
-      </c>
-      <c r="N7">
-        <v>40.990416</v>
-      </c>
-      <c r="O7">
-        <v>0.2163030132250088</v>
-      </c>
-      <c r="P7">
-        <v>0.2163030132250088</v>
-      </c>
-      <c r="Q7">
-        <v>0.3334342617066666</v>
-      </c>
-      <c r="R7">
-        <v>3.00090835536</v>
-      </c>
-      <c r="S7">
-        <v>0.0897055628467036</v>
-      </c>
-      <c r="T7">
-        <v>0.08970556284670357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.07321</v>
-      </c>
-      <c r="I8">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J8">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>30.94593233333333</v>
-      </c>
-      <c r="N8">
-        <v>92.83779699999999</v>
-      </c>
-      <c r="O8">
-        <v>0.4898973270305839</v>
-      </c>
-      <c r="P8">
-        <v>0.4898973270305839</v>
-      </c>
-      <c r="Q8">
-        <v>0.7551839020411111</v>
-      </c>
-      <c r="R8">
-        <v>6.796655118369999</v>
-      </c>
-      <c r="S8">
-        <v>0.2031710737781488</v>
-      </c>
-      <c r="T8">
-        <v>0.2031710737781487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.07321</v>
-      </c>
-      <c r="I9">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J9">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.057967000000001</v>
-      </c>
-      <c r="N9">
-        <v>15.173901</v>
-      </c>
-      <c r="O9">
-        <v>0.08007141251452472</v>
-      </c>
-      <c r="P9">
-        <v>0.08007141251452471</v>
-      </c>
-      <c r="Q9">
-        <v>0.12343125469</v>
-      </c>
-      <c r="R9">
-        <v>1.11088129221</v>
-      </c>
-      <c r="S9">
-        <v>0.03320735583130356</v>
-      </c>
-      <c r="T9">
-        <v>0.03320735583130355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.07321</v>
-      </c>
-      <c r="I10">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J10">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.373288333333332</v>
-      </c>
-      <c r="N10">
-        <v>22.119865</v>
-      </c>
-      <c r="O10">
-        <v>0.1167246863664523</v>
-      </c>
-      <c r="P10">
-        <v>0.1167246863664523</v>
-      </c>
-      <c r="Q10">
-        <v>0.1799328129611111</v>
-      </c>
-      <c r="R10">
-        <v>1.61939531665</v>
-      </c>
-      <c r="S10">
-        <v>0.04840826548132859</v>
-      </c>
-      <c r="T10">
-        <v>0.04840826548132857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.07321</v>
-      </c>
-      <c r="I11">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J11">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.127540333333333</v>
-      </c>
-      <c r="N11">
-        <v>18.382621</v>
-      </c>
-      <c r="O11">
-        <v>0.09700356086343023</v>
-      </c>
-      <c r="P11">
-        <v>0.09700356086343022</v>
-      </c>
-      <c r="Q11">
-        <v>0.1495324092677778</v>
-      </c>
-      <c r="R11">
-        <v>1.34579168341</v>
-      </c>
-      <c r="S11">
-        <v>0.04022948592184655</v>
-      </c>
-      <c r="T11">
-        <v>0.04022948592184653</v>
+        <v>0.07351660205871713</v>
       </c>
     </row>
   </sheetData>
